--- a/Project_Docs/Design_Docs/Requirements.xlsx
+++ b/Project_Docs/Design_Docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benmallinson/Library/Mobile Documents/com~apple~CloudDocs/Work/Robotics/Year_3/Archetectures/Assesment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71CD715-3F3E-9844-A0B0-62C6648E7A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67D0EB-61A2-034F-AC1D-43B2F6FEAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{568C1BC4-662B-4E8C-8046-76395581A451}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="17240" windowHeight="21600" xr2:uid="{568C1BC4-662B-4E8C-8046-76395581A451}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
   <si>
     <t>Type</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Package for vision system (python)</t>
   </si>
   <si>
-    <t>Package for lidar locatization (python)</t>
-  </si>
-  <si>
     <t>Package for keypad Input (C++)</t>
   </si>
   <si>
@@ -212,14 +209,152 @@
     <t>Package for ultrasonic sensors (python)</t>
   </si>
   <si>
-    <t>2.3, 2.4</t>
+    <t>1.1, 1.2, 1.3</t>
+  </si>
+  <si>
+    <t>1.1, 1.2</t>
+  </si>
+  <si>
+    <t>1.1, 1.2, 1.4</t>
+  </si>
+  <si>
+    <t>1.1, 1.2, 1.3, 1.4, 1.5</t>
+  </si>
+  <si>
+    <t>The systems main objective</t>
+  </si>
+  <si>
+    <t>Must function standalone</t>
+  </si>
+  <si>
+    <t>Must autonomously navigate</t>
+  </si>
+  <si>
+    <t>Must travel in elevator</t>
+  </si>
+  <si>
+    <t>Must take instructions and 	  deliver food</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2.3, 2.4, 2.6</t>
+  </si>
+  <si>
+    <t>2.4, 2.6</t>
+  </si>
+  <si>
+    <t>2.1, 2.6</t>
+  </si>
+  <si>
+    <t>2.2, 2.6</t>
+  </si>
+  <si>
+    <t>Package for lidar localisation (python)</t>
+  </si>
+  <si>
+    <t>3.1, 3.2, 3.3, 3.7, 3.9</t>
+  </si>
+  <si>
+    <t>3.6, 3.7</t>
+  </si>
+  <si>
+    <t>3.3, 3.7</t>
+  </si>
+  <si>
+    <t>3.7, 3.9</t>
+  </si>
+  <si>
+    <t>3.1, 3.7</t>
+  </si>
+  <si>
+    <t>3.7, 3.8</t>
+  </si>
+  <si>
+    <t>3.9, 3.7</t>
+  </si>
+  <si>
+    <t>Underlying robot framework</t>
+  </si>
+  <si>
+    <t>For interaction with users</t>
+  </si>
+  <si>
+    <t>For navigation</t>
+  </si>
+  <si>
+    <t>For identification of numbers</t>
+  </si>
+  <si>
+    <t>For carrying food</t>
+  </si>
+  <si>
+    <t>For software integration</t>
+  </si>
+  <si>
+    <t>For task planning</t>
+  </si>
+  <si>
+    <t>For object recognition</t>
+  </si>
+  <si>
+    <t>For SLAM</t>
+  </si>
+  <si>
+    <t>To accept room numbers</t>
+  </si>
+  <si>
+    <t>For localisation &amp; avoiding</t>
+  </si>
+  <si>
+    <t>For classifying room number</t>
+  </si>
+  <si>
+    <t>For Holding food tray</t>
+  </si>
+  <si>
+    <t>For Holding condiments</t>
+  </si>
+  <si>
+    <t>For Moving robot</t>
+  </si>
+  <si>
+    <t>For running ROS</t>
+  </si>
+  <si>
+    <t>For user interactions</t>
+  </si>
+  <si>
+    <t>For floor level obstacles</t>
+  </si>
+  <si>
+    <t>For adaptive planning</t>
+  </si>
+  <si>
+    <t>To drive wheels correctly</t>
+  </si>
+  <si>
+    <t>To identify room numbers</t>
+  </si>
+  <si>
+    <t>For SLAM algorithm</t>
+  </si>
+  <si>
+    <t>To identify selection</t>
+  </si>
+  <si>
+    <t>To process and play audio</t>
+  </si>
+  <si>
+    <t>To identify floor level objects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +426,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -348,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -404,6 +545,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -428,21 +581,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1139,8 +1279,8 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="185" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="88" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1325,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1194,91 +1334,120 @@
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
       <c r="G6" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="25"/>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1457,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4">
         <v>1.9</v>
       </c>
@@ -1298,7 +1467,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1477,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1318,10 +1487,10 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="27">
         <v>2.1</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1330,15 +1499,17 @@
       <c r="D13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="36">
+      <c r="A14" s="35"/>
+      <c r="B14" s="28">
         <v>2.2000000000000002</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1347,13 +1518,16 @@
       <c r="D14" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="37">
+      <c r="A15" s="35"/>
+      <c r="B15" s="28">
         <v>2.2999999999999998</v>
       </c>
       <c r="C15" t="s">
@@ -1362,13 +1536,16 @@
       <c r="D15" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
       <c r="G15" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="37">
+      <c r="A16" s="35"/>
+      <c r="B16" s="28">
         <v>2.4</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1377,13 +1554,16 @@
       <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="36">
+      <c r="A17" s="35"/>
+      <c r="B17" s="28">
         <v>2.5</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1392,28 +1572,34 @@
       <c r="D17" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
       <c r="G17" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="37">
+      <c r="A18" s="35"/>
+      <c r="B18" s="28">
         <v>2.6</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="37">
+      <c r="A19" s="35"/>
+      <c r="B19" s="28">
         <v>2.7</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1422,13 +1608,16 @@
       <c r="D19" s="24" t="s">
         <v>20</v>
       </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="36">
+      <c r="A20" s="35"/>
+      <c r="B20" s="28">
         <v>2.8</v>
       </c>
       <c r="C20" t="s">
@@ -1437,13 +1626,16 @@
       <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="37">
+      <c r="A21" s="35"/>
+      <c r="B21" s="28">
         <v>2.9</v>
       </c>
       <c r="C21" t="s">
@@ -1452,13 +1644,16 @@
       <c r="D21" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
       <c r="G21" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="37">
+      <c r="A22" s="35"/>
+      <c r="B22" s="28">
         <v>2.1</v>
       </c>
       <c r="D22" s="24"/>
@@ -1467,8 +1662,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="36">
+      <c r="A23" s="35"/>
+      <c r="B23" s="28">
         <v>2.11</v>
       </c>
       <c r="D23" s="24"/>
@@ -1477,8 +1672,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="37">
+      <c r="A24" s="35"/>
+      <c r="B24" s="28">
         <v>2.12</v>
       </c>
       <c r="C24" s="9"/>
@@ -1488,12 +1683,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="37">
+      <c r="A25" s="36"/>
+      <c r="B25" s="28">
         <v>2.13</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="22" t="s">
@@ -1501,10 +1696,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="28">
         <v>3.1</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1513,43 +1708,52 @@
       <c r="D26" s="24">
         <v>2.2000000000000002</v>
       </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
       <c r="G26" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36">
+      <c r="A27" s="38"/>
+      <c r="B27" s="28">
         <v>3.2</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="24">
-        <v>2.2999999999999998</v>
+      <c r="D27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="36">
+      <c r="A28" s="38"/>
+      <c r="B28" s="28">
         <v>3.3</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="24">
-        <v>2.4</v>
+      <c r="D28" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="36">
+      <c r="A29" s="38"/>
+      <c r="B29" s="28">
         <v>3.4</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1558,13 +1762,16 @@
       <c r="D29" s="24">
         <v>2.5</v>
       </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
       <c r="G29" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36">
+      <c r="A30" s="38"/>
+      <c r="B30" s="28">
         <v>3.5</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1573,77 +1780,92 @@
       <c r="D30" s="24">
         <v>2.5</v>
       </c>
+      <c r="E30" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="G30" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="36">
+      <c r="A31" s="38"/>
+      <c r="B31" s="28">
         <v>3.6</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="24">
-        <v>2.1</v>
+      <c r="D31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="36">
+      <c r="A32" s="38"/>
+      <c r="B32" s="28">
         <v>3.7</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="24">
-        <v>2.1</v>
+      <c r="D32" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="36">
+      <c r="A33" s="38"/>
+      <c r="B33" s="28">
         <v>3.8</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="24">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36">
-        <v>3.9</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="D34" s="24" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36">
+      <c r="A35" s="38"/>
+      <c r="B35" s="28">
         <v>3.1</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="6" t="s">
@@ -1651,115 +1873,136 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="28">
         <v>4.0999999999999996</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="24">
-        <v>2.7</v>
+      <c r="D36" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36">
+      <c r="A37" s="38"/>
+      <c r="B37" s="28">
         <v>4.2</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="24">
-        <v>2.1</v>
+      <c r="D37" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="36">
+      <c r="A38" s="38"/>
+      <c r="B38" s="28">
         <v>4.3</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="24">
-        <v>2.4</v>
+      <c r="D38" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="36">
+      <c r="A39" s="38"/>
+      <c r="B39" s="28">
         <v>4.4000000000000004</v>
       </c>
       <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="C40" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="36">
-        <v>4.5</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C41" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="24">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="24">
-        <v>2.2000000000000002</v>
+      <c r="D41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36">
+      <c r="A42" s="38"/>
+      <c r="B42" s="28">
         <v>4.7</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="36">
+      <c r="A43" s="38"/>
+      <c r="B43" s="28">
         <v>4.8</v>
       </c>
       <c r="D43" s="24"/>
@@ -1768,8 +2011,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="36">
+      <c r="A44" s="38"/>
+      <c r="B44" s="28">
         <v>4.9000000000000004</v>
       </c>
       <c r="D44" s="24"/>
@@ -1782,8 +2025,8 @@
       <c r="N44" s="19"/>
     </row>
     <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="36">
+      <c r="A45" s="38"/>
+      <c r="B45" s="28">
         <v>4.0999999999999996</v>
       </c>
       <c r="D45" s="24"/>
@@ -1796,8 +2039,8 @@
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="36">
+      <c r="A46" s="38"/>
+      <c r="B46" s="28">
         <v>4.1100000000000003</v>
       </c>
       <c r="D46" s="24"/>
@@ -1812,8 +2055,8 @@
       <c r="N46" s="19"/>
     </row>
     <row r="47" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="36">
+      <c r="A47" s="38"/>
+      <c r="B47" s="28">
         <v>4.12</v>
       </c>
       <c r="D47" s="24"/>
@@ -1828,8 +2071,8 @@
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="36">
+      <c r="A48" s="38"/>
+      <c r="B48" s="28">
         <v>4.13</v>
       </c>
       <c r="D48" s="24"/>
@@ -1840,8 +2083,8 @@
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="36">
+      <c r="A49" s="38"/>
+      <c r="B49" s="28">
         <v>4.1399999999999997</v>
       </c>
       <c r="D49" s="24"/>
@@ -1852,8 +2095,8 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="36">
+      <c r="A50" s="38"/>
+      <c r="B50" s="28">
         <v>4.1500000000000004</v>
       </c>
       <c r="D50" s="24"/>
@@ -1864,8 +2107,8 @@
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="36">
+      <c r="A51" s="38"/>
+      <c r="B51" s="28">
         <v>4.16</v>
       </c>
       <c r="D51" s="24"/>
@@ -1879,164 +2122,164 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="36">
+      <c r="A52" s="38"/>
+      <c r="B52" s="28">
         <v>4.17</v>
       </c>
       <c r="D52" s="24"/>
       <c r="G52" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="27"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="36">
+      <c r="A53" s="38"/>
+      <c r="B53" s="28">
         <v>4.18</v>
       </c>
       <c r="D53" s="24"/>
       <c r="G53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="27"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="36">
+      <c r="A54" s="38"/>
+      <c r="B54" s="28">
         <v>4.1900000000000004</v>
       </c>
       <c r="D54" s="24"/>
       <c r="G54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="27"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="36">
+      <c r="A55" s="38"/>
+      <c r="B55" s="28">
         <v>4.2</v>
       </c>
       <c r="D55" s="26"/>
       <c r="G55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="27"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="36">
+      <c r="A56" s="38"/>
+      <c r="B56" s="28">
         <v>4.21</v>
       </c>
       <c r="D56" s="24"/>
       <c r="G56" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="27"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="36">
+      <c r="A57" s="38"/>
+      <c r="B57" s="28">
         <v>4.22</v>
       </c>
       <c r="D57" s="24"/>
       <c r="G57" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="27"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="36">
+      <c r="A58" s="38"/>
+      <c r="B58" s="28">
         <v>4.2300000000000004</v>
       </c>
       <c r="D58" s="24"/>
       <c r="G58" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="27"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="36">
+      <c r="A59" s="38"/>
+      <c r="B59" s="28">
         <v>4.24</v>
       </c>
       <c r="D59" s="24"/>
       <c r="G59" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="27"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36">
+      <c r="A60" s="38"/>
+      <c r="B60" s="28">
         <v>4.25</v>
       </c>
       <c r="D60" s="24"/>
       <c r="G60" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="27"/>
+      <c r="I60" s="31"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D61" s="24"/>
-      <c r="I61" s="27"/>
+      <c r="I61" s="31"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I62" s="27"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I63" s="27"/>
+      <c r="I63" s="31"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I64" s="27"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I65" s="27"/>
+      <c r="I65" s="31"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I66" s="27"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I67" s="27"/>
+      <c r="I67" s="31"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I68" s="27"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I69" s="27"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="4"/>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I70" s="27"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="4"/>
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I71" s="27"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="4"/>
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I72" s="27"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="4"/>
       <c r="K72" s="5"/>
     </row>
@@ -2091,14 +2334,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b60020d-f8b1-4232-b884-492ebf646e60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="268118fb-5d43-4ee3-8cff-2debaee677da" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2309,27 +2550,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b60020d-f8b1-4232-b884-492ebf646e60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="268118fb-5d43-4ee3-8cff-2debaee677da" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A011C6-73D6-4626-9603-11AD052196C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC3300B-63B2-4188-8BC6-54849C9C24B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b60020d-f8b1-4232-b884-492ebf646e60"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="268118fb-5d43-4ee3-8cff-2debaee677da"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2354,9 +2588,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC3300B-63B2-4188-8BC6-54849C9C24B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A011C6-73D6-4626-9603-11AD052196C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b60020d-f8b1-4232-b884-492ebf646e60"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="268118fb-5d43-4ee3-8cff-2debaee677da"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>